--- a/比特直播课/比特直播课讲义/笔记-数据结构/2024_9_28 1.算法复杂度（2）+顺序表.xlsx
+++ b/比特直播课/比特直播课讲义/笔记-数据结构/2024_9_28 1.算法复杂度（2）+顺序表.xlsx
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="Y174" sqref="Y174"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="X193" sqref="X193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/比特直播课/比特直播课讲义/笔记-数据结构/2024_9_28 1.算法复杂度（2）+顺序表.xlsx
+++ b/比特直播课/比特直播课讲义/笔记-数据结构/2024_9_28 1.算法复杂度（2）+顺序表.xlsx
@@ -16,9 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>下课搞一搞旋转数组的题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意要传址，不要传值，形参和实参不能混用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,6 +459,158 @@
         <a:xfrm>
           <a:off x="1914525" y="30956250"/>
           <a:ext cx="11161905" cy="3980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>369943</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>94756</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="35404425"/>
+          <a:ext cx="12257143" cy="3952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>522368</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>113707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1495425" y="39776400"/>
+          <a:ext cx="12057143" cy="4742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>94723</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>171015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2733675" y="44700825"/>
+          <a:ext cx="4219048" cy="3476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>436552</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>113782</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="48091725"/>
+          <a:ext cx="12780952" cy="4142857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -753,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E7"/>
+  <dimension ref="E7:U214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="X193" sqref="X193"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="Z308" sqref="Z307:Z308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -764,6 +920,11 @@
     <row r="7" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E7" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="21:21" x14ac:dyDescent="0.15">
+      <c r="U214" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/比特直播课/比特直播课讲义/笔记-数据结构/2024_9_28 1.算法复杂度（2）+顺序表.xlsx
+++ b/比特直播课/比特直播课讲义/笔记-数据结构/2024_9_28 1.算法复杂度（2）+顺序表.xlsx
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E7:U214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="Z308" sqref="Z307:Z308"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="V245" sqref="V245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
